--- a/src/main/resources/testData/demo.xlsx
+++ b/src/main/resources/testData/demo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Bhanu</t>
   </si>
@@ -173,13 +173,16 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Run Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -241,6 +244,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -288,7 +299,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -302,6 +313,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -810,36 +822,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/demo.xlsx
+++ b/src/main/resources/testData/demo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Bhanu</t>
   </si>
@@ -176,13 +176,34 @@
   </si>
   <si>
     <t>Run Mode</t>
+  </si>
+  <si>
+    <t>loginStart</t>
+  </si>
+  <si>
+    <t>tes2</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>loginend</t>
+  </si>
+  <si>
+    <t>logoutStart</t>
+  </si>
+  <si>
+    <t>logoutend</t>
+  </si>
+  <si>
+    <t>logou1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -252,8 +273,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -285,6 +327,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -299,7 +378,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -314,6 +393,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -822,10 +906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,7 +918,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
@@ -845,7 +929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -856,7 +940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -865,6 +949,114 @@
       </c>
       <c r="C3" s="12" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/demo.xlsx
+++ b/src/main/resources/testData/demo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Bhanu</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Run Mode</t>
   </si>
   <si>
-    <t>loginStart</t>
-  </si>
-  <si>
     <t>tes2</t>
   </si>
   <si>
@@ -197,6 +194,18 @@
   </si>
   <si>
     <t>logou1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>loginstart</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -367,6 +376,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -378,7 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -398,6 +420,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -906,10 +932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,7 +944,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
@@ -929,7 +955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -940,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -951,112 +977,144 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+      <c r="D5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="D7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>54</v>
+      <c r="D16" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testData/demo.xlsx
+++ b/src/main/resources/testData/demo.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="TestReport" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="loginData" sheetId="5" r:id="rId4"/>
+    <sheet name="leadsData" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
   <si>
     <t>Bhanu</t>
   </si>
@@ -206,16 +208,135 @@
   </si>
   <si>
     <t>loginstart</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>leadSource</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>annualrevenue</t>
+  </si>
+  <si>
+    <t>noofemployees</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>leadStatus</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>salutationtype</t>
+  </si>
+  <si>
+    <t>Bhanu Pratap</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>learnByBhanu</t>
+  </si>
+  <si>
+    <t>youTube</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Bihar Muzaffarpur</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>this is automation</t>
+  </si>
+  <si>
+    <t>Contact in Future</t>
+  </si>
+  <si>
+    <t>leanrbybhnau@gmail.com</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>560078</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>Bhanu Pratap1</t>
+  </si>
+  <si>
+    <t>Bhanu Pratap2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,6 +417,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -394,36 +536,43 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -934,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1121,4 +1270,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testData/demo.xlsx
+++ b/src/main/resources/testData/demo.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="TestReport" sheetId="2" r:id="rId2"/>
-    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="masterData" sheetId="3" r:id="rId3"/>
     <sheet name="loginData" sheetId="5" r:id="rId4"/>
     <sheet name="leadsData" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
   <si>
     <t>Bhanu</t>
   </si>
@@ -189,24 +189,12 @@
     <t>loginend</t>
   </si>
   <si>
-    <t>logoutStart</t>
-  </si>
-  <si>
     <t>logoutend</t>
   </si>
   <si>
     <t>logou1</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>loginstart</t>
   </si>
   <si>
@@ -313,13 +301,22 @@
   </si>
   <si>
     <t>Bhanu Pratap2</t>
+  </si>
+  <si>
+    <t>leadsCreationstart</t>
+  </si>
+  <si>
+    <t>leadsCreationend</t>
+  </si>
+  <si>
+    <t>logoutstart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,14 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -438,6 +427,42 @@
       <color theme="1"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -460,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -483,66 +508,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -557,27 +533,32 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,190 +1062,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1345,250 +1587,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="H1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="J1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="K1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="L1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="M1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="N1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="O1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="P1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="Q1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="R1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="T1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="D2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="F2" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="G2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="I3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="J3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="M3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="O3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="P3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="T3" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="E4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="S4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
